--- a/data/trans_orig/P29_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>111875</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91982</v>
+        <v>92945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133327</v>
+        <v>132447</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1941444270361439</v>
+        <v>0.194144427036144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1596216531891473</v>
+        <v>0.1612927156475746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2313713288208485</v>
+        <v>0.2298431450030342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>656</v>
@@ -762,19 +762,19 @@
         <v>361015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337070</v>
+        <v>340119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>384251</v>
+        <v>383345</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4406436879851258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.411418235840625</v>
+        <v>0.4151396179468983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4690051911822098</v>
+        <v>0.4678990227101484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>775</v>
@@ -783,19 +783,19 @@
         <v>472890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>443330</v>
+        <v>442543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503393</v>
+        <v>504539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3388587069833556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3176768653393804</v>
+        <v>0.3171130043075171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3607164948511088</v>
+        <v>0.3615374125535897</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>100158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84656</v>
+        <v>84523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118924</v>
+        <v>116973</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1738099476521446</v>
+        <v>0.1738099476521447</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1469093591374081</v>
+        <v>0.146677918683164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.20637631054389</v>
+        <v>0.2029901171582276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>278</v>
@@ -833,19 +833,19 @@
         <v>156287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139025</v>
+        <v>139206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174611</v>
+        <v>174595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1907598984299446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1696894168355021</v>
+        <v>0.1699110206577557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2131253402924255</v>
+        <v>0.213106093183887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>414</v>
@@ -854,19 +854,19 @@
         <v>256445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>231382</v>
+        <v>233550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>282163</v>
+        <v>280360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1837608899491184</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1658013368652797</v>
+        <v>0.1673547567903268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2021897651518329</v>
+        <v>0.2008978954229944</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>75244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61604</v>
+        <v>60860</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92097</v>
+        <v>91800</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1305765420931608</v>
+        <v>0.1305765420931609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1069054437622113</v>
+        <v>0.1056134766785236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1598225285509768</v>
+        <v>0.1593058159071916</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>282</v>
@@ -904,19 +904,19 @@
         <v>174219</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>155399</v>
+        <v>155969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>192148</v>
+        <v>191412</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2126469815468409</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1896749774572667</v>
+        <v>0.1903707641783396</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2345301325532875</v>
+        <v>0.2336323099682565</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>371</v>
@@ -925,19 +925,19 @@
         <v>249464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>226082</v>
+        <v>227198</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>273861</v>
+        <v>272667</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1787582871611458</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.162003370213005</v>
+        <v>0.1628030866803976</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1962405281223789</v>
+        <v>0.1953853225577828</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>52290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39629</v>
+        <v>40540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68841</v>
+        <v>71056</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09074300127611631</v>
+        <v>0.09074300127611636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06877069308870214</v>
+        <v>0.07035121971905831</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1194646048955011</v>
+        <v>0.1233086146474486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -975,19 +975,19 @@
         <v>72453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58978</v>
+        <v>60426</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87079</v>
+        <v>86348</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08843380417250457</v>
+        <v>0.08843380417250458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07198672300950042</v>
+        <v>0.07375457445212258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1062865025142345</v>
+        <v>0.1053932616154139</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -996,19 +996,19 @@
         <v>124743</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107059</v>
+        <v>105774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>145911</v>
+        <v>143865</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08938732258231884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07671495097063806</v>
+        <v>0.07579456676702628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1045556754452277</v>
+        <v>0.1030890430598705</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>57023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43327</v>
+        <v>43897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>73344</v>
+        <v>73006</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09895624833595684</v>
+        <v>0.09895624833595687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07518759641730546</v>
+        <v>0.07617657529879786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.127277864082681</v>
+        <v>0.1266915406967616</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -1046,19 +1046,19 @@
         <v>27202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20321</v>
+        <v>19541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36786</v>
+        <v>36240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03320237962051079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02480319655366269</v>
+        <v>0.0238508203994423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.044899961409848</v>
+        <v>0.04423381098448177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>103</v>
@@ -1067,19 +1067,19 @@
         <v>84226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67210</v>
+        <v>68343</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103409</v>
+        <v>104040</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06035360211192332</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04816056562465036</v>
+        <v>0.04897267527812681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07409998653554235</v>
+        <v>0.07455177669759167</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>16514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10460</v>
+        <v>9788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26760</v>
+        <v>25146</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02865832726911991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01815209319984125</v>
+        <v>0.01698611094339446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04643830420011958</v>
+        <v>0.04363807337856183</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1117,19 +1117,19 @@
         <v>5142</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2392</v>
+        <v>2283</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9646</v>
+        <v>9842</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006276707637260962</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002919042210910695</v>
+        <v>0.002786129199466444</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01177324015802318</v>
+        <v>0.01201284789645714</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -1138,19 +1138,19 @@
         <v>21657</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14144</v>
+        <v>13720</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31823</v>
+        <v>32291</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01551857197489527</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01013492164048182</v>
+        <v>0.009831309750211851</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02280312301297071</v>
+        <v>0.02313847345798394</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>5563</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2233</v>
+        <v>2419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11700</v>
+        <v>11744</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009654014270963591</v>
+        <v>0.009654014270963593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003874523927819343</v>
+        <v>0.004198672144508713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02030402640298132</v>
+        <v>0.02037966676621899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1188,19 +1188,19 @@
         <v>2019</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5243</v>
+        <v>5162</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002464380358735347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0006869404899955302</v>
+        <v>0.0006833463157021772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006399316257688004</v>
+        <v>0.006301055189182811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1209,19 +1209,19 @@
         <v>7582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4011</v>
+        <v>4073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14628</v>
+        <v>14037</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005433138757233322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002873856710865388</v>
+        <v>0.002918461679373173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01048233423867072</v>
+        <v>0.01005873279892518</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>17380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11080</v>
+        <v>11137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27165</v>
+        <v>26963</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03016140939950233</v>
+        <v>0.03016140939950234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01922742307497618</v>
+        <v>0.01932683632344455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04714061540558732</v>
+        <v>0.04679103206752323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1259,19 +1259,19 @@
         <v>2533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5922</v>
+        <v>5793</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003092078336552063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001132610727443342</v>
+        <v>0.001135008173379276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.00722812515391618</v>
+        <v>0.007071076488589205</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1280,19 +1280,19 @@
         <v>19914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12854</v>
+        <v>13448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30030</v>
+        <v>30613</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01426960210423295</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009210964724603707</v>
+        <v>0.009636738524266074</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02151883158303218</v>
+        <v>0.02193636164931305</v>
       </c>
     </row>
     <row r="12">
@@ -1309,19 +1309,19 @@
         <v>140199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122450</v>
+        <v>120972</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>160854</v>
+        <v>159329</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2432960826668916</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2124954217429261</v>
+        <v>0.2099300054423885</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2791396621684948</v>
+        <v>0.2764941329152014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1330,19 +1330,19 @@
         <v>18418</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13204</v>
+        <v>12805</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26867</v>
+        <v>26029</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02248008191252509</v>
+        <v>0.02248008191252508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01611626078608567</v>
+        <v>0.01562937287482094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03279298803258709</v>
+        <v>0.03177042255131268</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>216</v>
@@ -1351,19 +1351,19 @@
         <v>158617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>136218</v>
+        <v>139409</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>178575</v>
+        <v>182411</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1136598783757764</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09760981039478178</v>
+        <v>0.09989659114489072</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1279616999446345</v>
+        <v>0.1307102084275861</v>
       </c>
     </row>
     <row r="13">
@@ -1455,19 +1455,19 @@
         <v>390781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353447</v>
+        <v>350636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>440025</v>
+        <v>431240</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1755156609107405</v>
+        <v>0.1755156609107406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1587475961800523</v>
+        <v>0.1574847937405063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1976330817545177</v>
+        <v>0.1936875115995868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>898</v>
@@ -1476,19 +1476,19 @@
         <v>633625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>594552</v>
+        <v>594104</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>677419</v>
+        <v>679063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2922923760861592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.274267725786955</v>
+        <v>0.2740613942137606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3124947602683836</v>
+        <v>0.3132528581443119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1258</v>
@@ -1497,19 +1497,19 @@
         <v>1024406</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>964767</v>
+        <v>966373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1080520</v>
+        <v>1082328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2331241109915947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2195520677054358</v>
+        <v>0.2199175470697523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2458941233343638</v>
+        <v>0.246305563794301</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>260986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>229201</v>
+        <v>230061</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>299063</v>
+        <v>299311</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1172193186883275</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.102943697804677</v>
+        <v>0.1033296985742101</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1343214913659135</v>
+        <v>0.1344328848182972</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>472</v>
@@ -1547,19 +1547,19 @@
         <v>330216</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>303988</v>
+        <v>301932</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>364247</v>
+        <v>362122</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1523292736626548</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1402304035323873</v>
+        <v>0.139281669794639</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1680276895458011</v>
+        <v>0.1670476518893496</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>726</v>
@@ -1568,19 +1568,19 @@
         <v>591202</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>549714</v>
+        <v>544257</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>638519</v>
+        <v>639060</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1345398100674627</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1250984769930643</v>
+        <v>0.123856596765177</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.145307893332705</v>
+        <v>0.1454309001780257</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>306058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269827</v>
+        <v>269236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347507</v>
+        <v>344287</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1374629469536423</v>
+        <v>0.1374629469536424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1211903854615138</v>
+        <v>0.1209249189317903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1560796397534897</v>
+        <v>0.1546335049328067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>506</v>
@@ -1618,19 +1618,19 @@
         <v>390621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358521</v>
+        <v>358275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>427053</v>
+        <v>427178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1801943263487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1653863086919113</v>
+        <v>0.1652730887066479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1970003222311055</v>
+        <v>0.1970580386400193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>767</v>
@@ -1639,19 +1639,19 @@
         <v>696679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>649225</v>
+        <v>648927</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>747317</v>
+        <v>747881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1585432499324368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1477442359718128</v>
+        <v>0.1476762927812302</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1700670160763162</v>
+        <v>0.1701953663918766</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>416984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>373810</v>
+        <v>380510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466130</v>
+        <v>467577</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1872843708633671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.167893386987477</v>
+        <v>0.1709027343839159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2093580721179947</v>
+        <v>0.2100081478819203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>541</v>
@@ -1689,19 +1689,19 @@
         <v>434239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398903</v>
+        <v>394856</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>469979</v>
+        <v>470537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2003153626689852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1840147011262744</v>
+        <v>0.1821478072355296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2168022359788478</v>
+        <v>0.2170595739395721</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>872</v>
@@ -1710,19 +1710,19 @@
         <v>851223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>796000</v>
+        <v>793552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>913392</v>
+        <v>912834</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1937128377012149</v>
+        <v>0.1937128377012148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1811457677315989</v>
+        <v>0.1805886539309372</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2078606586990611</v>
+        <v>0.2077337611502526</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>421468</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>376916</v>
+        <v>378438</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>466883</v>
+        <v>466357</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1892986275804509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1692885537436853</v>
+        <v>0.169972043666128</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2096960856502295</v>
+        <v>0.2094601391173928</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>319</v>
@@ -1760,19 +1760,19 @@
         <v>253329</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224471</v>
+        <v>225684</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>282953</v>
+        <v>283832</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1168610775554249</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.10354872897127</v>
+        <v>0.104108631997498</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1305268579355893</v>
+        <v>0.1309322763875533</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>663</v>
@@ -1781,19 +1781,19 @@
         <v>674797</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>629174</v>
+        <v>619218</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>734677</v>
+        <v>730010</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1535636355631853</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.143181245316507</v>
+        <v>0.1409155422840032</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1671905500938544</v>
+        <v>0.1661284833611457</v>
       </c>
     </row>
     <row r="19">
@@ -1810,19 +1810,19 @@
         <v>76389</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60508</v>
+        <v>60240</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98394</v>
+        <v>96925</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03430947473003556</v>
+        <v>0.03430947473003557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02717680299892552</v>
+        <v>0.02705633797853894</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04419270116320942</v>
+        <v>0.04353304342921533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1831,19 +1831,19 @@
         <v>38288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28260</v>
+        <v>27051</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52653</v>
+        <v>52404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01766227453246755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01303627218347096</v>
+        <v>0.01247870165818403</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02428915486874834</v>
+        <v>0.02417428019795771</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -1852,19 +1852,19 @@
         <v>114677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95407</v>
+        <v>93250</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140433</v>
+        <v>135936</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02609705498413871</v>
+        <v>0.0260970549841387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02171176087752393</v>
+        <v>0.02122096420532353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03195844640683392</v>
+        <v>0.03093501113781399</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>25405</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15919</v>
+        <v>15831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40544</v>
+        <v>39220</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01141051839322937</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007150007348835532</v>
+        <v>0.007110394976969883</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01820979937976843</v>
+        <v>0.01761522246864062</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1902,19 +1902,19 @@
         <v>10982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6902</v>
+        <v>6579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16889</v>
+        <v>17468</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005066216724145643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003183718418935081</v>
+        <v>0.003034935463374652</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007790756764310211</v>
+        <v>0.008058139783732281</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -1923,19 +1923,19 @@
         <v>36388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26304</v>
+        <v>25593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51763</v>
+        <v>51342</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00828073874963974</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005986035064339922</v>
+        <v>0.005824154926974605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01177963275622723</v>
+        <v>0.01168393768562433</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>40089</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30674</v>
+        <v>30142</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54804</v>
+        <v>53038</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01800559205883909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01377686620588513</v>
+        <v>0.0135378554845593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02461465141655492</v>
+        <v>0.02382159431746389</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1973,19 +1973,19 @@
         <v>13920</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8708</v>
+        <v>9008</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20783</v>
+        <v>21556</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.006421142463071971</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004017176745310825</v>
+        <v>0.004155192801774742</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009587129691179683</v>
+        <v>0.009943768361664971</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -1994,19 +1994,19 @@
         <v>54009</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41325</v>
+        <v>41979</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>68992</v>
+        <v>71052</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01229073541768911</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009404305872000876</v>
+        <v>0.009553246080963437</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01570056596251756</v>
+        <v>0.01616937259464757</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>288314</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255594</v>
+        <v>258861</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>322381</v>
+        <v>324939</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1294934898213676</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1147975835144795</v>
+        <v>0.1162652155862884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1447946563187247</v>
+        <v>0.1459435539282013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -2044,19 +2044,19 @@
         <v>62558</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50328</v>
+        <v>49837</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77387</v>
+        <v>76976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02885794995839064</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02321629631723833</v>
+        <v>0.02298999262761686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03569864095219738</v>
+        <v>0.03550901454760508</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>388</v>
@@ -2065,19 +2065,19 @@
         <v>350871</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>313846</v>
+        <v>316572</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>387334</v>
+        <v>391492</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07984782659263798</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07142205130445681</v>
+        <v>0.07204232255033809</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08814561587629709</v>
+        <v>0.08909176072752853</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>116602</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95470</v>
+        <v>97798</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138431</v>
+        <v>138498</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1638620178677208</v>
+        <v>0.1638620178677207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1341649727501241</v>
+        <v>0.1374359253009474</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1945379863997239</v>
+        <v>0.1946321637427853</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>284</v>
@@ -2190,19 +2190,19 @@
         <v>188199</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>169087</v>
+        <v>166387</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>208089</v>
+        <v>208382</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2567983118828006</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2307198083579633</v>
+        <v>0.2270351013686999</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2839373531948163</v>
+        <v>0.284337230998244</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>408</v>
@@ -2211,19 +2211,19 @@
         <v>304801</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>276252</v>
+        <v>274936</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>334097</v>
+        <v>335005</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2110147714662619</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1912501468730647</v>
+        <v>0.1903386410516529</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2312960540566741</v>
+        <v>0.2319246177363329</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>60737</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46765</v>
+        <v>46363</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79458</v>
+        <v>78163</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08535424722332974</v>
+        <v>0.08535424722332972</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06571861386699338</v>
+        <v>0.06515424668091159</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1116626642233159</v>
+        <v>0.1098438291537832</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>105</v>
@@ -2261,19 +2261,19 @@
         <v>72641</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59963</v>
+        <v>60226</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87910</v>
+        <v>86745</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09911848959019166</v>
+        <v>0.09911848959019164</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08182002380780916</v>
+        <v>0.0821781729630971</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1199538913546459</v>
+        <v>0.1183642410798864</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -2282,19 +2282,19 @@
         <v>133378</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114647</v>
+        <v>112841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156724</v>
+        <v>154845</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09233776142166791</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07937069434275155</v>
+        <v>0.0781199487754826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1085007245194917</v>
+        <v>0.1071997836203755</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>90238</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73385</v>
+        <v>73610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>112859</v>
+        <v>112410</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1268121584112287</v>
+        <v>0.1268121584112286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1031282431109864</v>
+        <v>0.1034450100874905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1586015069434606</v>
+        <v>0.1579710193585271</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -2332,19 +2332,19 @@
         <v>109536</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>91968</v>
+        <v>93962</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>129030</v>
+        <v>129432</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1494622730398644</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1254902581572777</v>
+        <v>0.1282119447098936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1760621164651469</v>
+        <v>0.1766100447306616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>219</v>
@@ -2353,19 +2353,19 @@
         <v>199774</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174992</v>
+        <v>174481</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>227720</v>
+        <v>228229</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1383040656943992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1211474601699774</v>
+        <v>0.1207939549983571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1576509884961566</v>
+        <v>0.158003663895658</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>145312</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>119300</v>
+        <v>123177</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>171149</v>
+        <v>173489</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2042084037759356</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.167653723389025</v>
+        <v>0.1731022015070286</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2405175180749642</v>
+        <v>0.2438058273606746</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>206</v>
@@ -2403,19 +2403,19 @@
         <v>166280</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>145179</v>
+        <v>147297</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>188089</v>
+        <v>186548</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2268888436641738</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1980965927181952</v>
+        <v>0.2009876216689878</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2566481651597385</v>
+        <v>0.2545445381900943</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>326</v>
@@ -2424,19 +2424,19 @@
         <v>311592</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>279980</v>
+        <v>279403</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>347160</v>
+        <v>344269</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2157156970771199</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.193831014895178</v>
+        <v>0.1934311089881558</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2403398563289232</v>
+        <v>0.2383382245028525</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>178316</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>151960</v>
+        <v>154925</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>203274</v>
+        <v>203667</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2505891606156453</v>
+        <v>0.2505891606156452</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2135512545608971</v>
+        <v>0.217717154239937</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2856633346099847</v>
+        <v>0.2862146549960715</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>202</v>
@@ -2474,19 +2474,19 @@
         <v>150619</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131171</v>
+        <v>131854</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>173115</v>
+        <v>170055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2055194679766178</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1789833401331284</v>
+        <v>0.1799155898774593</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2362164657031991</v>
+        <v>0.2320410567312425</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>359</v>
@@ -2495,19 +2495,19 @@
         <v>328935</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>299403</v>
+        <v>296534</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>360572</v>
+        <v>360742</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2277223125850446</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2072774577664658</v>
+        <v>0.2052912429243567</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2496251853539194</v>
+        <v>0.249742933812691</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>25661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17171</v>
+        <v>17005</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38408</v>
+        <v>38085</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03606181779460651</v>
+        <v>0.03606181779460649</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02413050954453668</v>
+        <v>0.02389790108489285</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05397447124879068</v>
+        <v>0.05352144779424978</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2545,19 +2545,19 @@
         <v>18319</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12383</v>
+        <v>11943</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28288</v>
+        <v>27430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02499589822122902</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01689644983641838</v>
+        <v>0.01629637513191437</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0385990580628033</v>
+        <v>0.03742849125584083</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>50</v>
@@ -2566,19 +2566,19 @@
         <v>43980</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32785</v>
+        <v>32528</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57509</v>
+        <v>56938</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03044734193762777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02269705977287633</v>
+        <v>0.02251910554570449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0398133069520811</v>
+        <v>0.03941834844986115</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>7248</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3446</v>
+        <v>3195</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14307</v>
+        <v>13454</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01018619913613896</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004842868720857521</v>
+        <v>0.004490562594948225</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02010632003191124</v>
+        <v>0.01890693808860937</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2616,19 +2616,19 @@
         <v>5886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2708</v>
+        <v>2610</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13235</v>
+        <v>12712</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008031729417097929</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003695123111985531</v>
+        <v>0.003561831484609076</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01805894014590624</v>
+        <v>0.01734581074281069</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>16</v>
@@ -2637,19 +2637,19 @@
         <v>13135</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7759</v>
+        <v>7256</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21116</v>
+        <v>21024</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009093093575237467</v>
+        <v>0.009093093575237465</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00537160097516478</v>
+        <v>0.005023566074883414</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01461844624917154</v>
+        <v>0.01455478287385463</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>24103</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16056</v>
+        <v>16584</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33976</v>
+        <v>35839</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03387206862035858</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02256348578743093</v>
+        <v>0.02330586191994526</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04774704168943067</v>
+        <v>0.05036534531657803</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2687,19 +2687,19 @@
         <v>4026</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1432</v>
+        <v>1387</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9293</v>
+        <v>8267</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005493398929370816</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001953845084982046</v>
+        <v>0.001892849123193165</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01268037144596352</v>
+        <v>0.01128090134473882</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>35</v>
@@ -2708,19 +2708,19 @@
         <v>28129</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19657</v>
+        <v>19000</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39253</v>
+        <v>37791</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01947368493640825</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0136083338879489</v>
+        <v>0.01315378115852485</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02717520391443728</v>
+        <v>0.02616301856966595</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>63370</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>49213</v>
+        <v>50012</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78885</v>
+        <v>78660</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08905392655503599</v>
+        <v>0.08905392655503598</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06915948541286385</v>
+        <v>0.07028193386634581</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1108578448997664</v>
+        <v>0.1105417795998389</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -2758,19 +2758,19 @@
         <v>17363</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11385</v>
+        <v>11845</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25127</v>
+        <v>25126</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02369158727865385</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01553442663434501</v>
+        <v>0.01616215247539177</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03428651089941179</v>
+        <v>0.03428473102937906</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>103</v>
@@ -2779,19 +2779,19 @@
         <v>80732</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65792</v>
+        <v>65434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96645</v>
+        <v>97545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05589127130623286</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04554811335137446</v>
+        <v>0.04529988741187344</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06690774174788698</v>
+        <v>0.06753091911219836</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>619258</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>572068</v>
+        <v>569192</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>670839</v>
+        <v>674553</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1762105933734874</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.16278250945689</v>
+        <v>0.1619642024362815</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1908878211268125</v>
+        <v>0.1919448818601743</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1838</v>
@@ -2904,19 +2904,19 @@
         <v>1182839</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1131831</v>
+        <v>1132225</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1232595</v>
+        <v>1227884</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3179729663723499</v>
+        <v>0.31797296637235</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3042609066655588</v>
+        <v>0.3043668710648164</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3313486619955093</v>
+        <v>0.3300822358035758</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2441</v>
@@ -2925,19 +2925,19 @@
         <v>1802097</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1735032</v>
+        <v>1729968</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1876835</v>
+        <v>1875804</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2491065130837403</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2398360009138058</v>
+        <v>0.2391360179106372</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2594376037760449</v>
+        <v>0.259295185643758</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>421880</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>384375</v>
+        <v>385748</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>467058</v>
+        <v>465947</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1200464645490751</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1093743423087294</v>
+        <v>0.1097650307891578</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1329019742403811</v>
+        <v>0.1325857183758537</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>855</v>
@@ -2975,19 +2975,19 @@
         <v>559144</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>523063</v>
+        <v>526590</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>600260</v>
+        <v>598062</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1503102349692248</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.140610692721243</v>
+        <v>0.1415588593027459</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1613630487684351</v>
+        <v>0.1607721802872512</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1307</v>
@@ -2996,19 +2996,19 @@
         <v>981025</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>921573</v>
+        <v>927608</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1033669</v>
+        <v>1038753</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1356084598233392</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1273903498988953</v>
+        <v>0.1282246036602942</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1428855719274559</v>
+        <v>0.1435884120819513</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>471540</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>427820</v>
+        <v>424964</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>519966</v>
+        <v>517966</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1341771679548319</v>
+        <v>0.1341771679548318</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1217365243908882</v>
+        <v>0.1209240277811076</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1479568075390707</v>
+        <v>0.1473876332312397</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>927</v>
@@ -3046,19 +3046,19 @@
         <v>674377</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>633029</v>
+        <v>630831</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>712789</v>
+        <v>715641</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1812872390976691</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1701720177730257</v>
+        <v>0.1695810954526623</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1916133332199032</v>
+        <v>0.1923798497481965</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1357</v>
@@ -3067,19 +3067,19 @@
         <v>1145917</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1084269</v>
+        <v>1086122</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1207093</v>
+        <v>1206385</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1584017339727845</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1498800777856994</v>
+        <v>0.1501362192305654</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1668581685191901</v>
+        <v>0.1667603473921329</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>614586</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>562386</v>
+        <v>565117</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>665045</v>
+        <v>672991</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1748811205226063</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1600276268753237</v>
+        <v>0.1608045734807589</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1892392186147072</v>
+        <v>0.1915002385607008</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>860</v>
@@ -3117,19 +3117,19 @@
         <v>672972</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>629804</v>
+        <v>631050</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>716640</v>
+        <v>717654</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1809095207278691</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1693050701705087</v>
+        <v>0.1696401920734261</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1926486034200264</v>
+        <v>0.192921185120706</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1366</v>
@@ -3138,19 +3138,19 @@
         <v>1287558</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1222697</v>
+        <v>1223468</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1354715</v>
+        <v>1358461</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.177980996519657</v>
+        <v>0.1779809965196569</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1690152410509946</v>
+        <v>0.1691217523164436</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1872641981283636</v>
+        <v>0.1877820075600027</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>656808</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>605679</v>
+        <v>605566</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>711225</v>
+        <v>713790</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1868952921644942</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1723465698714329</v>
+        <v>0.172314471575733</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2023798093514052</v>
+        <v>0.203109648422695</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>565</v>
@@ -3188,19 +3188,19 @@
         <v>431150</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>395200</v>
+        <v>397893</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>468257</v>
+        <v>473358</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1159025251608611</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1062385397049803</v>
+        <v>0.1069624059064694</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1258776352404901</v>
+        <v>0.1272489619219297</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1125</v>
@@ -3209,19 +3209,19 @@
         <v>1087957</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1020259</v>
+        <v>1025829</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1152271</v>
+        <v>1155971</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1503899562701306</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1410318555893275</v>
+        <v>0.1418018913520183</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1592800728468</v>
+        <v>0.1597914964994859</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>118565</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>97884</v>
+        <v>97578</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>145049</v>
+        <v>140017</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03373766445444275</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.027853006455562</v>
+        <v>0.02776583496971345</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04127374405065173</v>
+        <v>0.03984211322048174</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>84</v>
@@ -3259,19 +3259,19 @@
         <v>61749</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>48258</v>
+        <v>49289</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>77675</v>
+        <v>78604</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0165994895039861</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01297291460648287</v>
+        <v>0.01324990012512793</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02088068036486269</v>
+        <v>0.02113046164875024</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>199</v>
@@ -3280,19 +3280,19 @@
         <v>180314</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>155731</v>
+        <v>154491</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>207276</v>
+        <v>210979</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02492500846723816</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02152686887430238</v>
+        <v>0.02135546870435049</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02865207815505078</v>
+        <v>0.02916393440221698</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>38217</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26983</v>
+        <v>27905</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>52964</v>
+        <v>52750</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01087459736620435</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007677957799627661</v>
+        <v>0.007940324728040311</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.015071101810871</v>
+        <v>0.01501014233830482</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>30</v>
@@ -3330,19 +3330,19 @@
         <v>18888</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12584</v>
+        <v>12690</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>27048</v>
+        <v>27859</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005077419464776453</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003382739794813497</v>
+        <v>0.003411427762544296</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.007271080387636183</v>
+        <v>0.007489036361306841</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>69</v>
@@ -3351,19 +3351,19 @@
         <v>57104</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>44134</v>
+        <v>43195</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>73266</v>
+        <v>73759</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007893618662836206</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006100664121552616</v>
+        <v>0.00597084836501256</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0101276718977147</v>
+        <v>0.01019585133394024</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>81572</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>66751</v>
+        <v>65456</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>100401</v>
+        <v>100757</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02321149414328795</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01899399176493725</v>
+        <v>0.01862559690351391</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02856934294298838</v>
+        <v>0.02867052899366928</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>32</v>
@@ -3401,19 +3401,19 @@
         <v>20479</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13815</v>
+        <v>14302</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28878</v>
+        <v>28916</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005505164382769346</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003713780964857936</v>
+        <v>0.003844725824896279</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.007762961561920259</v>
+        <v>0.007773156169938194</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>128</v>
@@ -3422,19 +3422,19 @@
         <v>102051</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85517</v>
+        <v>84922</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>122398</v>
+        <v>121912</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0141066861093791</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01182107704488305</v>
+        <v>0.01173884715132823</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01691927024814974</v>
+        <v>0.01685210348598466</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>491882</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>454543</v>
+        <v>450108</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>537541</v>
+        <v>531215</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1399656054715701</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1293405634388831</v>
+        <v>0.1280786507782447</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.152957858956687</v>
+        <v>0.1511579041958714</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>150</v>
@@ -3472,19 +3472,19 @@
         <v>98338</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>83209</v>
+        <v>84016</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>117014</v>
+        <v>116446</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02643544032049409</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02236827036855015</v>
+        <v>0.02258538443298883</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03145582445993026</v>
+        <v>0.03130330373318983</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>707</v>
@@ -3493,19 +3493,19 @@
         <v>590220</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>542312</v>
+        <v>545509</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>633925</v>
+        <v>632442</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08158702709089501</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07496456825391438</v>
+        <v>0.07540645947841078</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08762838184012435</v>
+        <v>0.0874234471341209</v>
       </c>
     </row>
     <row r="43">
